--- a/Team-Data/2011-12/1-19-2011-12.xlsx
+++ b/Team-Data/2011-12/1-19-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>7.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
         <v>3</v>
@@ -765,10 +832,10 @@
         <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM2" t="n">
         <v>17</v>
@@ -780,13 +847,13 @@
         <v>10</v>
       </c>
       <c r="AP2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
         <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS2" t="n">
         <v>5</v>
@@ -795,19 +862,19 @@
         <v>10</v>
       </c>
       <c r="AU2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV2" t="n">
         <v>4</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>5</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>20</v>
@@ -938,7 +1005,7 @@
         <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-10.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="n">
         <v>27</v>
       </c>
       <c r="AF4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
         <v>13</v>
@@ -1129,16 +1196,16 @@
         <v>4</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>25</v>
       </c>
       <c r="AM4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
         <v>27</v>
@@ -1147,7 +1214,7 @@
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR4" t="n">
         <v>17</v>
@@ -1156,13 +1223,13 @@
         <v>18</v>
       </c>
       <c r="AT4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -1302,16 +1369,16 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
         <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL5" t="n">
         <v>20</v>
@@ -1329,16 +1396,16 @@
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
@@ -1514,10 +1581,10 @@
         <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT6" t="n">
         <v>8</v>
@@ -1538,7 +1605,7 @@
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -1576,70 +1643,70 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="J7" t="n">
-        <v>78.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.435</v>
+        <v>0.43</v>
       </c>
       <c r="L7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.314</v>
+        <v>0.318</v>
       </c>
       <c r="O7" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P7" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.745</v>
+        <v>0.742</v>
       </c>
       <c r="R7" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="S7" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="T7" t="n">
-        <v>41.7</v>
+        <v>42.3</v>
       </c>
       <c r="U7" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V7" t="n">
         <v>15.1</v>
       </c>
       <c r="W7" t="n">
-        <v>9.9</v>
+        <v>10.3</v>
       </c>
       <c r="X7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z7" t="n">
         <v>20.1</v>
@@ -1648,43 +1715,43 @@
         <v>19.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>92.40000000000001</v>
+        <v>92.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM7" t="n">
         <v>5</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
         <v>13</v>
@@ -1693,25 +1760,25 @@
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT7" t="n">
         <v>15</v>
       </c>
-      <c r="AR7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>19</v>
-      </c>
       <c r="AU7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AV7" t="n">
         <v>13</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX7" t="n">
         <v>24</v>
@@ -1729,7 +1796,7 @@
         <v>22</v>
       </c>
       <c r="BC7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -1836,22 +1903,22 @@
         <v>5.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
       </c>
       <c r="AF8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG8" t="n">
         <v>9</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ8" t="n">
         <v>20</v>
@@ -1872,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
         <v>13</v>
@@ -1881,7 +1948,7 @@
         <v>30</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT8" t="n">
         <v>24</v>
@@ -1899,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="AY8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -2018,19 +2085,19 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>27</v>
       </c>
       <c r="AF9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -2060,7 +2127,7 @@
         <v>7</v>
       </c>
       <c r="AR9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -2212,16 +2279,16 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
         <v>18</v>
       </c>
       <c r="AK10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL10" t="n">
         <v>15</v>
@@ -2254,7 +2321,7 @@
         <v>11</v>
       </c>
       <c r="AV10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW10" t="n">
         <v>8</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -2304,88 +2371,88 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
         <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.533</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="I11" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="J11" t="n">
-        <v>85.5</v>
+        <v>85.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.445</v>
+        <v>0.448</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M11" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="N11" t="n">
         <v>0.334</v>
       </c>
       <c r="O11" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="P11" t="n">
-        <v>17.1</v>
+        <v>17.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R11" t="n">
         <v>12.9</v>
       </c>
       <c r="S11" t="n">
-        <v>31.6</v>
+        <v>31.1</v>
       </c>
       <c r="T11" t="n">
-        <v>44.5</v>
+        <v>43.9</v>
       </c>
       <c r="U11" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="V11" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="X11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA11" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
@@ -2397,64 +2464,64 @@
         <v>3</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ11" t="n">
         <v>1</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN11" t="n">
         <v>17</v>
       </c>
       <c r="AO11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP11" t="n">
         <v>30</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR11" t="n">
         <v>4</v>
       </c>
       <c r="AS11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AV11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX11" t="n">
         <v>23</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>21</v>
       </c>
       <c r="AY11" t="n">
         <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA11" t="n">
         <v>30</v>
       </c>
       <c r="BB11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -2564,16 +2631,16 @@
         <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF12" t="n">
         <v>3</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
         <v>6</v>
@@ -2612,7 +2679,7 @@
         <v>10</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>28</v>
@@ -2633,13 +2700,13 @@
         <v>25</v>
       </c>
       <c r="BA12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB12" t="n">
         <v>20</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -2749,13 +2816,13 @@
         <v>30</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
         <v>3</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH13" t="n">
         <v>5</v>
@@ -2764,7 +2831,7 @@
         <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
         <v>14</v>
@@ -2812,13 +2879,13 @@
         <v>1</v>
       </c>
       <c r="AZ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA13" t="n">
         <v>1</v>
       </c>
       <c r="BB13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC13" t="n">
         <v>15</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -2850,109 +2917,109 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.625</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J14" t="n">
-        <v>78.90000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L14" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M14" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.254</v>
+        <v>0.25</v>
       </c>
       <c r="O14" t="n">
-        <v>17.2</v>
+        <v>17.5</v>
       </c>
       <c r="P14" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="R14" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S14" t="n">
-        <v>33.9</v>
+        <v>34.4</v>
       </c>
       <c r="T14" t="n">
-        <v>45.1</v>
+        <v>45.6</v>
       </c>
       <c r="U14" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="V14" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X14" t="n">
         <v>5.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>92.90000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM14" t="n">
         <v>20</v>
@@ -2961,31 +3028,31 @@
         <v>30</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP14" t="n">
         <v>16</v>
       </c>
       <c r="AQ14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS14" t="n">
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX14" t="n">
         <v>14</v>
@@ -2994,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA14" t="n">
         <v>15</v>
@@ -3003,7 +3070,7 @@
         <v>19</v>
       </c>
       <c r="BC14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -3110,19 +3177,19 @@
         <v>0.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH15" t="n">
         <v>16</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>17</v>
       </c>
       <c r="AI15" t="n">
         <v>6</v>
@@ -3131,7 +3198,7 @@
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
@@ -3167,7 +3234,7 @@
         <v>14</v>
       </c>
       <c r="AW15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -3214,94 +3281,94 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.714</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="I16" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="J16" t="n">
-        <v>81.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.49</v>
+        <v>0.494</v>
       </c>
       <c r="L16" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="M16" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.406</v>
+        <v>0.397</v>
       </c>
       <c r="O16" t="n">
-        <v>20.1</v>
+        <v>20.7</v>
       </c>
       <c r="P16" t="n">
-        <v>27.6</v>
+        <v>28.4</v>
       </c>
       <c r="Q16" t="n">
         <v>0.729</v>
       </c>
       <c r="R16" t="n">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="S16" t="n">
-        <v>32.9</v>
+        <v>33.2</v>
       </c>
       <c r="T16" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U16" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="V16" t="n">
-        <v>17.1</v>
+        <v>17.4</v>
       </c>
       <c r="W16" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="X16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>22.3</v>
+        <v>22.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>106.6</v>
+        <v>107.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AF16" t="n">
         <v>3</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH16" t="n">
         <v>1</v>
@@ -3316,22 +3383,22 @@
         <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
         <v>22</v>
@@ -3352,16 +3419,16 @@
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ16" t="n">
         <v>27</v>
       </c>
       <c r="BA16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BB16" t="n">
         <v>1</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3486,10 +3553,10 @@
         <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
         <v>6</v>
@@ -3498,7 +3565,7 @@
         <v>20</v>
       </c>
       <c r="AL17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM17" t="n">
         <v>12</v>
@@ -3507,7 +3574,7 @@
         <v>22</v>
       </c>
       <c r="AO17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP17" t="n">
         <v>29</v>
@@ -3534,13 +3601,13 @@
         <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY17" t="n">
         <v>22</v>
       </c>
       <c r="AZ17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA17" t="n">
         <v>21</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>2.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3668,13 +3735,13 @@
         <v>18</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
         <v>23</v>
       </c>
       <c r="AJ18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK18" t="n">
         <v>24</v>
@@ -3695,13 +3762,13 @@
         <v>8</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR18" t="n">
         <v>10</v>
       </c>
       <c r="AS18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT18" t="n">
         <v>9</v>
@@ -3719,19 +3786,19 @@
         <v>26</v>
       </c>
       <c r="AY18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB18" t="n">
         <v>15</v>
       </c>
       <c r="BC18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>24</v>
@@ -3850,7 +3917,7 @@
         <v>25</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
         <v>28</v>
@@ -3871,7 +3938,7 @@
         <v>9</v>
       </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP19" t="n">
         <v>18</v>
@@ -3901,10 +3968,10 @@
         <v>27</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA19" t="n">
         <v>14</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -3942,64 +4009,64 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2</v>
+        <v>0.214</v>
       </c>
       <c r="H20" t="n">
-        <v>48.3</v>
+        <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="J20" t="n">
-        <v>78.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.431</v>
+        <v>0.434</v>
       </c>
       <c r="L20" t="n">
         <v>3.5</v>
       </c>
       <c r="M20" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="N20" t="n">
         <v>0.275</v>
       </c>
       <c r="O20" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="P20" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.749</v>
+        <v>0.753</v>
       </c>
       <c r="R20" t="n">
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
       <c r="S20" t="n">
         <v>31.6</v>
       </c>
       <c r="T20" t="n">
-        <v>44.3</v>
+        <v>44</v>
       </c>
       <c r="U20" t="n">
         <v>18.9</v>
       </c>
       <c r="V20" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="X20" t="n">
         <v>5.3</v>
@@ -4008,61 +4075,61 @@
         <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.9</v>
+        <v>-5.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
         <v>27</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN20" t="n">
         <v>28</v>
       </c>
       <c r="AO20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP20" t="n">
         <v>23</v>
       </c>
-      <c r="AP20" t="n">
-        <v>24</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS20" t="n">
         <v>14</v>
@@ -4077,16 +4144,16 @@
         <v>22</v>
       </c>
       <c r="AW20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX20" t="n">
         <v>9</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4214,7 +4281,7 @@
         <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
@@ -4226,7 +4293,7 @@
         <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM21" t="n">
         <v>4</v>
@@ -4256,22 +4323,22 @@
         <v>26</v>
       </c>
       <c r="AV21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX21" t="n">
         <v>28</v>
       </c>
       <c r="AY21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ21" t="n">
         <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB21" t="n">
         <v>18</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>4.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>17</v>
@@ -4408,7 +4475,7 @@
         <v>5</v>
       </c>
       <c r="AL22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM22" t="n">
         <v>15</v>
@@ -4423,7 +4490,7 @@
         <v>4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>29</v>
@@ -4432,25 +4499,25 @@
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU22" t="n">
         <v>25</v>
       </c>
       <c r="AV22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW22" t="n">
         <v>18</v>
       </c>
       <c r="AX22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY22" t="n">
         <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA22" t="n">
         <v>13</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>4.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
         <v>19</v>
@@ -4587,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO23" t="n">
         <v>18</v>
@@ -4611,16 +4678,16 @@
         <v>18</v>
       </c>
       <c r="AS23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT23" t="n">
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW23" t="n">
         <v>26</v>
@@ -4635,10 +4702,10 @@
         <v>6</v>
       </c>
       <c r="BA23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>13.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>4</v>
@@ -4760,7 +4827,7 @@
         <v>4</v>
       </c>
       <c r="AH24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI24" t="n">
         <v>2</v>
@@ -4781,13 +4848,13 @@
         <v>6</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
         <v>22</v>
       </c>
       <c r="AQ24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR24" t="n">
         <v>27</v>
@@ -4796,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>7</v>
@@ -4811,7 +4878,7 @@
         <v>7</v>
       </c>
       <c r="AY24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
@@ -4942,16 +5009,16 @@
         <v>21</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>14</v>
       </c>
       <c r="AK25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
         <v>13</v>
@@ -4972,7 +5039,7 @@
         <v>5</v>
       </c>
       <c r="AR25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS25" t="n">
         <v>19</v>
@@ -4981,7 +5048,7 @@
         <v>25</v>
       </c>
       <c r="AU25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -5112,19 +5179,19 @@
         <v>2.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF26" t="n">
         <v>13</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>12</v>
       </c>
       <c r="AG26" t="n">
         <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>12</v>
@@ -5133,19 +5200,19 @@
         <v>5</v>
       </c>
       <c r="AK26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL26" t="n">
         <v>18</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>19</v>
       </c>
       <c r="AM26" t="n">
         <v>14</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP26" t="n">
         <v>13</v>
@@ -5172,19 +5239,19 @@
         <v>9</v>
       </c>
       <c r="AX26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY26" t="n">
         <v>12</v>
       </c>
       <c r="AZ26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA26" t="n">
         <v>10</v>
       </c>
       <c r="BB26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-10.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>20</v>
@@ -5306,7 +5373,7 @@
         <v>23</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
         <v>29</v>
@@ -5333,7 +5400,7 @@
         <v>5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
@@ -5342,7 +5409,7 @@
         <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5354,16 +5421,16 @@
         <v>11</v>
       </c>
       <c r="AX27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ27" t="n">
         <v>7</v>
       </c>
       <c r="BA27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -5476,16 +5543,16 @@
         <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
       </c>
       <c r="AF28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG28" t="n">
         <v>9</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>8</v>
       </c>
       <c r="AH28" t="n">
         <v>4</v>
@@ -5512,16 +5579,16 @@
         <v>25</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ28" t="n">
         <v>27</v>
       </c>
       <c r="AR28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT28" t="n">
         <v>22</v>
@@ -5533,10 +5600,10 @@
         <v>6</v>
       </c>
       <c r="AW28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY28" t="n">
         <v>13</v>
@@ -5551,7 +5618,7 @@
         <v>5</v>
       </c>
       <c r="BC28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-7</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
@@ -5670,7 +5737,7 @@
         <v>25</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI29" t="n">
         <v>29</v>
@@ -5700,13 +5767,13 @@
         <v>10</v>
       </c>
       <c r="AR29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU29" t="n">
         <v>20</v>
@@ -5721,7 +5788,7 @@
         <v>16</v>
       </c>
       <c r="AY29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ29" t="n">
         <v>29</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -5762,148 +5829,148 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.643</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>36.4</v>
+        <v>36.8</v>
       </c>
       <c r="J30" t="n">
         <v>80.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.451</v>
+        <v>0.456</v>
       </c>
       <c r="L30" t="n">
         <v>3.6</v>
       </c>
       <c r="M30" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.282</v>
+        <v>0.285</v>
       </c>
       <c r="O30" t="n">
-        <v>19.1</v>
+        <v>18.5</v>
       </c>
       <c r="P30" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.742</v>
+        <v>0.728</v>
       </c>
       <c r="R30" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="S30" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T30" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U30" t="n">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="V30" t="n">
         <v>13.6</v>
       </c>
       <c r="W30" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X30" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="Y30" t="n">
         <v>5.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AD30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>15</v>
       </c>
-      <c r="AE30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>16</v>
-      </c>
       <c r="AK30" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
       </c>
       <c r="AM30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN30" t="n">
         <v>27</v>
       </c>
       <c r="AO30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AR30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AS30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT30" t="n">
         <v>12</v>
       </c>
       <c r="AU30" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AV30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW30" t="n">
         <v>10</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
@@ -5915,7 +5982,7 @@
         <v>13</v>
       </c>
       <c r="BC30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
@@ -6022,22 +6089,22 @@
         <v>-10.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
       </c>
       <c r="AH31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
         <v>7</v>
@@ -6046,7 +6113,7 @@
         <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM31" t="n">
         <v>26</v>
@@ -6070,7 +6137,7 @@
         <v>23</v>
       </c>
       <c r="AT31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-19-2011-12</t>
+          <t>2012-01-19</t>
         </is>
       </c>
     </row>
